--- a/DonnéesQ1.xlsx
+++ b/DonnéesQ1.xlsx
@@ -171,7 +171,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6173288478558371E-2"/>
+          <c:y val="1.1751642500732004E-2"/>
+          <c:w val="0.94322185347999021"/>
+          <c:h val="0.81017243604279554"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -303,7 +313,7 @@
                   <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1870</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2100</c:v>
@@ -406,7 +416,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
@@ -545,19 +555,19 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1200</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1950</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2800</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2700</c:v>
@@ -575,16 +585,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>250</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1850</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>500</c:v>
@@ -702,22 +712,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3200</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3400</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1950</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>950</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>170</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>820</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -832,10 +842,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1000</c:v>
@@ -847,7 +857,7 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1015,7 +1025,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1360" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1618,15 +1628,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>480785</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>48077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>436537</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>72570</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1913,8 +1923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F17"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1940,19 +1950,19 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>500</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1964,10 +1974,10 @@
         <v>2100</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -2007,7 +2017,7 @@
         <v>300</v>
       </c>
       <c r="D5" s="1">
-        <v>1950</v>
+        <v>2100</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2033,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2047,13 +2057,13 @@
         <v>300</v>
       </c>
       <c r="D7" s="1">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2090,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="1">
         <v>1000</v>
@@ -2110,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="F10" s="1">
         <v>1000</v>
@@ -2130,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1950</v>
+        <v>1800</v>
       </c>
       <c r="F11" s="1">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2150,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>950</v>
+        <v>700</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -2167,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -2190,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>820</v>
+        <v>200</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -2201,13 +2211,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1870</v>
+        <v>1200</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -2227,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1850</v>
+        <v>1600</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>

--- a/DonnéesQ1.xlsx
+++ b/DonnéesQ1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
